--- a/ExcelFiles/OutputData.xlsx
+++ b/ExcelFiles/OutputData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="67">
   <si>
     <t>Listed Doctors</t>
   </si>
@@ -211,6 +211,256 @@
 New BEL Road,Bangalore  Dental Clinic and Orthodontic Centre
 ₹500 Consultation fee at clinic
 100% 2 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Achuth M Baliga
+Dentist
+48 years experience overall
+Old Airport Road,Bangalore  Manipal Hospitals Old Airport Road
+₹600 Consultation fee at clinic
+69% 30 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Rita Mukherjee
+Dentist
+48 years experience overall
+Old Airport Road,Bangalore  Manipal Hospitals Old Airport Road + 1 more
+₹600 Consultation fee at clinic
+100% 4 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Krishna Shama Rao
+Dentist
+44 years experience overall
+Kengeri,Bangalore  BGS Gleneagles Global Hospital + 4 more
+₹1000 Consultation fee at clinic
+100% 3 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Kishor's Dentistry
+6 Dentist
+1 - 14 years experience
+Kilpauk
+₹500Consultation Fees
+99%1043 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Udhayaraja
+Dentist
+44 years experience overall
+T Nagar,Chennai  Dr. Udhayarajas Dental &amp; Orthodontic Centre + 1 more
+₹500 Consultation fee at clinic
+99% 204 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Veerabahu
+Dentist
+36 years experience overall
+Kilpauk,Chennai  The Head and Neck Centre &amp; Hospital
+₹500 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Arun K Vasudevan
+Dentist
+33 years experience overall
+Greams Road,Chennai  Apollo Hospital + 3 more
+₹500 Consultation fee at clinic
+100% 1 Patient Story</t>
+  </si>
+  <si>
+    <t>Dr. Rajesh Kumar
+Dentist
+30 years experience overall
+Mylapore,Chennai  Thangam's Dental Clinic
+₹500 Consultation fee at clinic
+99% 174 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Vandana James
+Dentist
+16 years experience overall
+Rajakilpakkam,Chennai  Kings Dental Care
+₹500 Consultation fee at clinic
+94% 10 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Pavani Thota
+Dentist
+13 years experience overall
+Nungambakkam,Chennai  Dhantham Dental Hospital International + 1 more
+₹1800 Consultation fee at clinic
+97% 25 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Roshan Rayen
+Dentist
+24 years experience overall
+Nungambakkam,Chennai  Rayen Dental Care Center + 1 more
+₹500 Consultation fee at clinic
+98% 216 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Mathan Mohan
+Dentist
+25 years experience overall
+Vanagaram,Chennai  Apollo Speciality Hospital + 1 more
+₹800 Consultation fee at clinic
+100% 3 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dental and Orthodontic Clinic
+22 - 26 years experience
+Kalyan Nagar
+₹500Consultation Fees
+98%1249 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dental and Orthodontic Clinic
+2 Dentist
+22 - 26 years experience
+Kalyan Nagar
+₹500Consultation Fees
+98%1249 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Vathsala Naik
+Dentist
+41 years experience overall
+Indiranagar,Bangalore  V Dental &amp; Implant Center
+₹500 Consultation fee at clinic
+100% 35 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Balajee Krishna
+Dentist
+35 years experience overall
+Malleswaram,Bangalore  Pranam Dental &amp; Medical Speciality Clinic
+₹500 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Vijayendra R
+Dentist
+49 years experience overall
+BTM Layout 2nd Stage,Bangalore  Sathyadeep Dental Clinic
+₹400 Consultation fee at clinic
+100% 64 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sumanth Shetty
+Dentist
+25 years experience overall
+Koramangala,Bangalore  Chisel Dental
+₹300 Consultation fee at clinic
+97% 2708 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Rashmi Shetty
+Dentist
+19 years experience overall
+Koramangala,Bangalore  Chisel Dental
+₹350 Consultation fee at clinic
+99% 2767 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Minty Sharma
+Dentist
+18 years experience overall
+HSR Layout,Bangalore  Smiles Dental Studio
+₹350 Consultation fee at clinic
+98% 256 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Shilpa I.G
+Dentist
+17 years experience overall
+Singasandra,Bangalore  Dental 32
+₹300 Consultation fee at clinic
+98% 199 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Chelliah Venkatraman
+Dentist
+51 years experience overall
+Adyar,Chennai  Parasu Dental Hospital + 2 more
+₹1500 Consultation fee at clinic
+92% 30 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Jamuna Udhayaraja
+Dentist
+44 years experience overall
+T Nagar,Chennai  Dr. Udhayarajas Dental &amp; Orthodontic Centre + 1 more
+₹500 Consultation fee at clinic
+99% 20 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Gunaseelan Rajan
+Dentist
+37 years experience overall
+Mylapore,Chennai  Rajan Dental Care
+₹1500 Consultation fee at clinic
+100% 4 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Vivekananda Reddy
+Dentist
+23 years experience overall
+Hoodi,Bangalore  Smile Craft Dental and Implant Centre
+₹500 Consultation fee at clinic
+98% 276 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. A. Praveen Kumar Reddy
+Dentist
+17 years experience overall
+Whitefield,Bangalore  Smaya's Dento Care
+₹500 Consultation fee at clinic
+98% 32 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Swarnalatha Bejjam
+Dentist
+17 years experience overall
+Whitefield,Bangalore  Smaya's Dento Care
+₹500 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Shilpashree S
+Dentist
+17 years experience overall
+Rajarajeshwarinagar,Bangalore  Vaibhava Dental Clinic
+₹500 Consultation fee at clinic
+100%</t>
+  </si>
+  <si>
+    <t>Dr. Raksha Venugopal
+Dentist
+7 years experience overall
+Whitefield,Bangalore  Smaya's Dento Care
+₹500 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Dr. Arpitha Murali
+Dentist
+1 year experience
+KR Puram,Bangalore  Tirumala Dental And Implant Clinic
+₹400 Consultation fee at clinic</t>
+  </si>
+  <si>
+    <t>Impressions Dental Specialities
+3 Dentist
+23 - 31 years experience
+Sahakaranagar
+₹400Consultation Fees
+98%534 Patient Stories</t>
+  </si>
+  <si>
+    <t>Dr. Sunil Rao
+Dentist
+28 years experience overall
+Vijayanagar,Bangalore  Smile Dental Care
+₹500 Consultation fee at clinic
+98% 212 Patient Stories</t>
   </si>
 </sst>
 </file>
@@ -602,7 +852,7 @@
     </row>
     <row r="2" spans="1:2" ht="91" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -618,7 +868,7 @@
     </row>
     <row r="4" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -626,7 +876,7 @@
     </row>
     <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -634,7 +884,7 @@
     </row>
     <row r="6" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
